--- a/biology/Botanique/Pottsia/Pottsia.xlsx
+++ b/biology/Botanique/Pottsia/Pottsia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pottsia est un genre de plante à fleurs de la famille des Apocynaceae, décrite pour la première fois en 1837. Il est originaire d'Asie de l'Est et du Sud-Est[2],[3],[4],[5]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pottsia est un genre de plante à fleurs de la famille des Apocynaceae, décrite pour la première fois en 1837. Il est originaire d'Asie de l'Est et du Sud-Est. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (11 septembre 2019)[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (11 septembre 2019) :
 Pottsia densiflora DJMiddleton - Laos, Thaïlande
 Pottsia grandiflora Markgr. - Fujian, Guangdong, Guangxi, Hunan, Yunnan, Zhejiang
 Pottsia laxiflora (Blume) Kuntze - Fujian, Guangdong, Guangxi, Guizhou, Hainan, Hunan, Yunnan, Zhejiang, Assam, Bangladesh, Indochine, Malaisie occidentale, Sumatra, Java, Bali</t>
@@ -544,13 +558,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (11 septembre 2019)[7] et World Checklist of Selected Plant Families (WCSP)  (11 septembre 2019)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (11 septembre 2019) et World Checklist of Selected Plant Families (WCSP)  (11 septembre 2019) :
 Pottsia densiflora D.J.Middleton (2001)
 Pottsia grandiflora Markgr. (1926)
 Pottsia laxiflora (Blume) Kuntze (1891)
-Selon Tropicos                                           (11 septembre 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 septembre 2019) (Attention liste brute contenant possiblement des synonymes) :
 Pottsia cantonensis Hook. &amp; Arn.
 Pottsia densiflora D.J. Middleton
 Pottsia grandiflora Markgr.
